--- a/RestaurantLinks.xlsx
+++ b/RestaurantLinks.xlsx
@@ -10,6 +10,36 @@
     <sheet name="Title" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Links Page 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Links Page 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Links Page 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Links Page 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Links Page 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Links Page 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Links Page 7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Links Page 8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Links Page 9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Links Page 10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Links Page 11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Links Page 12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Links Page 13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Links Page 14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Links Page 15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Links Page 16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Links Page 17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Links Page 18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Links Page 19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Links Page 20" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Links Page 21" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Links Page 22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Links Page 23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Links Page 24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Links Page 25" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Links Page 26" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Links Page 27" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Links Page 28" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Links Page 29" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Links Page 30" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Links Page 31" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Links Page 32" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +487,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +504,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Links Page1</t>
+          <t>Links Page9</t>
         </is>
       </c>
     </row>
@@ -484,7 +514,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2272025-Reviews-Ristorante_Pizzeria_Nastro_Azzurro-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d4025636-Reviews-Ristorante_Bar_Caffetteria_Al_Duomo-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
         </is>
       </c>
     </row>
@@ -494,7 +524,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1819149-Reviews-La_Griglia-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2536477-Reviews-Bloom_Food_and_Caffe-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
         </is>
       </c>
     </row>
@@ -504,7 +534,2177 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2262953-Reviews-San_Mattia_Osteria_Pizzeria_Lounge_Bar-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d13199588-Reviews-Yard_Restaurant-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1025151-Reviews-Osteria_A_La_Carega-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d12001497-Reviews-Osteria_dei_Signori-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g186370-d10090526-Reviews-Dough_Pizza_Restaurant-Bath_Somerset_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2005259-d2002569-Reviews-Anyukam_Mondta-Encs_Borsod_Abauj_Zemplen_County_Northern_Hungary.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d9587710-Reviews-Hosteria_Moderna_Verona-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g56418-d3846678-Reviews-Verona_Italian_Bistro-Pampa_Texas.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g670667-d6405070-Reviews-IL_PIZZO_NERO-Villafranca_di_Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d7820392-Reviews-Gastronomia_Vecio_Castel-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d8298648-Reviews-Guapo-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3724269-Reviews-Piu_Gusto_Bio-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g608942-d2320141-Reviews-Castrum_Relais_Ristorante-San_Pietro_in_Cariano_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g188590-d8413206-Reviews-Verona_Ristorante_Italiano-Amsterdam_North_Holland_Province.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2230810-Reviews-Roadhouse_Grill-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60898-d478093-Reviews-Nino_s_Italian_Restaurant-Atlanta_Georgia.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d793112-Reviews-Pizzeria_Trattoria_Vecchia_Lira-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g644289-d3682599-Reviews-Ristorante_Pina-Castelnuovo_del_Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d8705360-Reviews-Ichiban-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g298507-d4508160-Reviews-Amarcord-St_Petersburg_Northwestern_District.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g298115-d10281500-Reviews-Pizzeria_e_Trattoria_Da_TAKE-Kanazawa_Ishikawa_Prefecture_Hokuriku_Chubu.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187867-d1104361-Reviews-Shanghai-Padua_Province_of_Padua_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3492066-Reviews-Al_Calmiere-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d4414665-Reviews-Zen_Lounge_Cafe-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2316425-Reviews-Bar_Ristorante_Della_Ragione-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g659317-d1138240-Reviews-Le_Gemme_di_Artemisia-Torri_del_Benaco_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g291963-d4743321-Reviews-Pasta_Per_Caso_Anna_Armando-Caye_Caulker_Belize_Cayes.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187782-d11767762-Reviews-Frankie_s_Bar_Pizzeria-Sorrento_Province_of_Naples_Campania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d17325997-Reviews-Da_Pino-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d13189108-Reviews-Signor_Grano-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g154914-d13207564-Reviews-Favoloso-Edmonton_Alberta.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1137877-d3163429-Reviews-Albergo_Ristorante_Leso-Bosco_Chiesanuova_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d19795521-Reviews-Bue_Nero-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194789-d1118586-Reviews-Alla_Grotta-Lazise_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g635642-d6499377-Reviews-Marco_e_Daniela_Time-Peschiera_del_Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g13811269-d4343843-Reviews-Zoca_Pizzeria_Caffetteria-Da_an_Taipei.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1492666-Reviews-Ristorante_Pizzeria_Ai_Glicini-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2163450-Reviews-Trattoria_Alla_Palma-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d10692338-Reviews-GROM_Il_Gelato_come_una_volta-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2715162-Reviews-Gelateria_Lui_Lei-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3384723-Reviews-La_Boutique_Del_Gelato-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2418318-Reviews-Notte_E_Di-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2734418-Reviews-Osteria_La_vela-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d10164664-Reviews-Osteria_All_Organetto-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187801-d1064728-Reviews-Trattoria_Anna_Maria-Bologna_Province_of_Bologna_Emilia_Romagna.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1063388-d2102893-Reviews-Pepperone-San_Giovanni_Lupatoto_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1186763-d7792681-Reviews-Bruschetteria_Nose-Rivoltella_Desenzano_Del_Garda_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187895-d2075392-Reviews-Gelateria_dei_Neri-Florence_Tuscany.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g608942-d5484521-Reviews-Locanda_dal_Nane-San_Pietro_in_Cariano_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g315962-d7931821-Reviews-Poco_Pizza-Lyme_Regis_Dorset_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2299981-d7061300-Reviews-Gelateria_Giulietta-Povegliano_Veronese_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1186047-d1581402-Reviews-Ristorante_da_Umberto-Castelletto_Brenzone_sul_Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1060110-d2216963-Reviews-Bue_D_Oro-Valeggio_Sul_Mincio_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1534305-d2357200-Reviews-Antica_Osteria_Paverno-Valgatara_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194806-d1434700-Reviews-Il_Faro_di_Capo_d_Orso-Maiori_Amalfi_Coast_Province_of_Salerno_Campania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194935-d2242499-Reviews-Aqua_Ristorante-Torbole_Nago_Torbole_Province_of_Trento_Trentino_Alto_Adige.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g294265-d10847075-Reviews-Braci-Singapore.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187842-d1090087-Reviews-La_Rucola_2_0-Sirmione_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194772-d1540358-Reviews-Ristorante_Pizzeria_Sans_Souci-Gardone_Riviera_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194965-d1858865-Reviews-Ristorante_Esplanade-Desenzano_Del_Garda_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194664-d3589809-Reviews-Enosfizioteca_Conterosso-Alba_Province_of_Cuneo_Piedmont.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2292153-d6800638-Reviews-La_Storica_di_Asso-Asso_Province_of_Como_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g635642-d8461211-Reviews-Ristorante_Locanda_Dogana-Peschiera_del_Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2299981-d3446202-Reviews-Agriturismo_Dal_Pastor-Povegliano_Veronese_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1064199-d10051344-Reviews-Verona-Guia_de_Isora_Tenerife_Canary_Islands.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187822-d1464410-Reviews-Trattoria_da_Sandro-Vernazza_Cinque_Terre_Italian_Riviera_Liguria.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g188636-d812857-Reviews-Da_Giovanni-Antwerp_Antwerp_Province.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187899-d945332-Reviews-Antica_Trattoria_Da_Bruno-Pisa_Province_of_Pisa_Tuscany.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187842-d2296377-Reviews-Ristorante_Pizzeria_Modi-Sirmione_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187842-d1457960-Reviews-Erica_Ristorante-Sirmione_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g186338-d3296991-Reviews-Saporitalia-London_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187872-d1097319-Reviews-Zushi_Japanese_Restaurant-Vicenza_Province_of_Vicenza_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g776261-d1052545-Reviews-Caffetteria_Torinese-Palmanova_Province_of_Udine_Friuli_Venezia_Giulia.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2046151-Reviews-Dolce_Gusto_Ristorante_Pizzeria-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g670667-d3849558-Reviews-Osteria_del_Bugiardo-Villafranca_di_Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d7316793-Reviews-La_Rossa_Filante_Pizzeria-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g661295-d1807176-Reviews-Trattoria_Caprini-Negrar_di_Valpolicella_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g255060-d12815626-Reviews-Rosetta-Sydney_New_South_Wales.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2272025-Reviews-Ristorante_Pizzeria_Nastro_Azzurro-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1819149-Reviews-La_Griglia-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2054361-Reviews-Antica_Bottega_del_Vino-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1087226-Reviews-Trattoria_Al_Pompiere-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1020196-Reviews-Ristorante_Greppia-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2559076-Reviews-Locanda_4_Cuochi-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1639946-Reviews-Osteria_Il_Bertoldo-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d10195552-Reviews-Parma_a_Tavola-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d15710629-Reviews-La_Colonna_Stuzzicheria-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d15310459-Reviews-Nizza_Cafe-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1053395-d1717957-Reviews-Trattoria_Ca_Persiane-Cavaion_Veronese_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g274856-d7178194-Reviews-Spacca_Napoli-Warsaw_Mazovia_Province_Central_Poland.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194791-d1641055-Reviews-Osteria_degli_Spiriti-Lecce_Province_of_Lecce_Puglia.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2357600-d1087182-Reviews-Bacco_d_Oro_Restaurant_Enoteca-Mezzane_di_Sotto_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187870-d1888367-Reviews-Vini_da_Pinto-Venice_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187801-d3192460-Reviews-Venchi_Cioccolato_e_Gelato_Bologna_Via_degli_Orefici_Piazza_Maggiore-Bologna_Prov.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187827-d1094275-Reviews-Trattoria_da_Pino-Santa_Margherita_Ligure_Italian_Riviera_Liguria.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187895-d1550809-Reviews-Ristorante_Pizzeria_Maso-Florence_Tuscany.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g274887-d1163540-Reviews-Porcellino_Grasso_Ristorante-Budapest_Central_Hungary.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g652045-d1915707-Reviews-Fucina_Lunch_Dinner-Bussolengo_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1078002-d3320253-Reviews-Trattoria_pizzeria_al_Senato-Vigasio_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1167979-d3438322-Reviews-Trattoria_Ai_Colli_Storici-Custoza_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d10766827-Reviews-Alcova_di_La-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g652054-d1048651-Reviews-Dalla_Rosa_Alda-Sant_Ambrogio_di_Valpolicella_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g12815965-d2365917-Reviews-Ristorante_Osteria_San_Rocco-Sardagna_Trento_Province_of_Trento_Trentino_Alto_A.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187869-d2431501-Reviews-Carbone-Treviso_Province_of_Treviso_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g804491-d2077025-Reviews-Trattoria_S_Eufemia-Brisighella_Province_of_Ravenna_Emilia_Romagna.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187826-d1632026-Reviews-Rocco_e_i_Suoi_Fratelli-Rapallo_Italian_Riviera_Liguria.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g294297-d12912458-Reviews-La_Trattoria_da_Pietro-Pucon_Araucania_Region.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187781-d1492711-Reviews-Taverna_Santamaria-Salerno_Amalfi_Coast_Province_of_Salerno_Campania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187823-d1208433-Reviews-La_Pizza_di_Egizio-Genoa_Italian_Riviera_Liguria.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194718-d6678019-Reviews-Blu_Mari-Castellammare_Di_Stabia_Province_of_Naples_Campania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d14082516-Reviews-Venchi-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d7269226-Reviews-Istanbul_Doner_Kebab_Pizzeria-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d4411065-Reviews-Spizzico-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1439489-d1405789-Reviews-Antica_Osteria_Cera-Campagna_Lupia_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60763-d524733-Reviews-Sant_Ambroeus-New_York_City_New_York.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194780-d800306-Reviews-San_Domenico-Imola_Province_of_Bologna_Emilia_Romagna.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1972574-d2209674-Reviews-Agriturismo_Camposilvano-Velo_Veronese_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g312559-d12842503-Reviews-Remo_s_Italian-Port_Elizabeth_Eastern_Cape.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60763-d10299551-Reviews-PN_Wood_Fired_Pizza-New_York_City_New_York.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60768-d672518-Reviews-Trattoria_Bella_Sera-El_Paso_Texas.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g659927-d3173864-Reviews-UrChoice_Bistro_Cafe-Dipolog_Zamboanga_del_Norte_Zamboanga_Peninsula_Mindanao.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g295366-d2441375-Reviews-Caffe_Opera_Ristorante-Antigua_Sacatepequez_Department.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g190765-d3531625-Reviews-The_Red_Lion-Wallingford_Oxfordshire_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1571712-d16869666-Reviews-CA_Cucina-Hellerup_Gentofte_Municipality_Copenhagen_Region_Zealand.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g49680-d17327259-Reviews-Cugino_Forno_Pizzeria_Winston_Salem-Winston_Salem_North_Carolina.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g46152-d6612418-Reviews-Campo_Enoteca-Manchester_New_Hampshire.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g644254-d11964499-Reviews-Civico_7-Salo_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g227887-d2310281-Reviews-Al_Vecchio_Fontec-Limone_sul_Garda_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g54002-d1803833-Reviews-Cafe_Toscana-Wilkes_Barre_Luzerne_County_Pocono_Mountains_Region_Pennsylvania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194883-d2339112-Reviews-Gelateria_Caffe_Cristallo_Riva_del_Garda-Riva_Del_Garda_Province_of_Trento_Trenti.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g297697-d10769937-Reviews-La_Coccinella-Kuta_Kuta_District_Bali.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187895-d2648766-Reviews-Enoteca_Alla_Sosta_dei_Papi-Florence_Tuscany.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g6964531-d6834061-Reviews-Barolino-Cardito_Province_of_Naples_Campania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g41166-d7097333-Reviews-Arturo_s_Trattoria-Glen_Burnie_Maryland.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187849-d1400682-Reviews-Bar_Castello-Milan_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2281197-Reviews-Il_Cappero-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1053395-d3686588-Reviews-Ristorante_Locanda_Centrale-Cavaion_Veronese_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1056166-d1893410-Reviews-El_Bagolo_Ristorantino-Sona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1137877-d2211786-Reviews-Araldo_Arte_del_Gusto-Bosco_Chiesanuova_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194883-d1746566-Reviews-Osteria_La_Contrada-Riva_Del_Garda_Province_of_Trento_Trentino_Alto_Adige.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1514130-d8134728-Reviews-Ristorante_de_L_Albergo_Trattoria_Italia-San_Martino_della_Battaglia_Desenzano_D.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194892-d1758636-Reviews-Osteria_Del_Castello-Salsomaggiore_Terme_Province_of_Parma_Emilia_Romagna.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g186264-d18338222-Reviews-San_Tonino-Shaftesbury_Dorset_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187895-d3176617-Reviews-Toscanella_Osteria-Florence_Tuscany.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187791-d4939971-Reviews-Julian_Cafe-Rome_Lazio.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1591391-d1827742-Reviews-Cavallo_Rosso-Villanova_Mondovi_Province_of_Cuneo_Piedmont.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g262054-d1717811-Reviews-Ristorante_Grissino-Almancil_Loule_Faro_District_Algarve.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187870-d2098747-Reviews-L_Alcova_Restaurant_at_Ca_Sagredo_Hotel-Venice_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g188110-d3240028-Reviews-Ristorante_Pasteria_Rothelberg-Zug.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194666-d4172424-Reviews-Casa_Del_Gelato-Albenga_Italian_Riviera_Liguria.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194683-d1574307-Reviews-La_Loggia_e_La_Barchessa_Rambaldi-Bardolino_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194789-d1418557-Reviews-Oreste_Restaurant_Suite-Lazise_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g652052-d4153190-Reviews-Settimo_Cielo-Pescantina_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194771-d2149602-Reviews-Ristorante_Il_Merlo_Nero-Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194771-d6978724-Reviews-Pizz_Rio_Willi_De_Kus-Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3514664-Reviews-Grotta_Azzurra-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3545624-Reviews-Trattoria_da_Fiore-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1087130-Reviews-Al_Parigin-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187848-d1235203-Reviews-Osteria_delle_Erbe-Mantua_Province_of_Mantua_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60763-d776995-Reviews-Sfoglia-New_York_City_New_York.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187830-d776835-Reviews-DaMimmo-Bergamo_Province_of_Bergamo_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187857-d788197-Reviews-Batzen_Brau-Bolzano_Province_of_South_Tyrol_Trentino_Alto_Adige.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2642447-d1817529-Reviews-Venissa_il_Ristorante-Mazzorbo_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g189143-d12843956-Reviews-Il_Tartufo-Coimbra_Coimbra_District_Central_Portugal.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1007324-d2093484-Reviews-Il_Moro_di_Trezza-Acitrezza_Aci_Castello_Province_of_Catania_Sicily.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187870-d7254051-Reviews-Gino_s-Venice_Veneto.html#REVIEWS</t>
         </is>
       </c>
     </row>
@@ -519,7 +2719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +2764,1116 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1372004-Reviews-Maharajah_Ristorante_Indiano-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3346339-Reviews-Gelateria_Ponte_Pietra-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2287503-Reviews-Pizzeria_Leon_d_Oro-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2077002-Reviews-Osteria_Verona_Antica-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2437664-Reviews-Santa_Felicita-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187870-d10147384-Reviews-Relax_Caffe-Venice_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187899-d945334-Reviews-Ristorante_Il_Colonnino-Pisa_Province_of_Pisa_Tuscany.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g35531-d1527203-Reviews-Gino_s_Italian_Restaurant-Meridian_Idaho.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187785-d3598635-Reviews-Antica_Pizzeria_Nennella-Naples_Province_of_Naples_Campania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60763-d7156316-Reviews-Sant_Ambroeus-New_York_City_New_York.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g188633-d6420235-Reviews-Ristorante_Tanta_Roba-The_Hague_South_Holland_Province.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g55863-d12302189-Reviews-Bella_Sera-Fredericksburg_Texas.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1204471-d1950666-Reviews-Mangiare_Bere_Uomo_Donna-Suzzara_Province_of_Mantua_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g150812-d1108774-Reviews-Ambasciata_D_Italia-Playa_del_Carmen_Yucatan_Peninsula.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194771-d7020619-Reviews-Pegaso-Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60713-d13431124-Reviews-Gio_Gelati-San_Francisco_California.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g186338-d8177908-Reviews-Amorino_Islington-London_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g277825-d10447991-Reviews-Rosso_Pub_Pizza-Jelgava_Zemgale_Region.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g56350-d15328115-Reviews-Noli_s_Vite-New_Braunfels_Texas.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194683-d1811872-Reviews-Corte_San_Giovanni-Bardolino_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g608943-d2241469-Reviews-Enoteca_Realda-Soave_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187848-d1954595-Reviews-Hosteria_Leon_D_Oro-Mantua_Province_of_Mantua_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g664153-d2175675-Reviews-Ristorante_Pizzeria_Da_Salvatore-Padenghe_sul_Garda_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187870-d6834417-Reviews-Sestante_Bar_Restaurant-Venice_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187801-d2092457-Reviews-Ristorante_Pizzeria_Snoopy_2-Bologna_Province_of_Bologna_Emilia_Romagna.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1185701-d2306090-Reviews-Ristorante_Antica_Croce-Tenno_Province_of_Trento_Trentino_Alto_Adige.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g188080-d1520129-Reviews-Ristorante_Pizzeria_Da_Salvi-Grindelwald_Jungfrau_Region_Bernese_Oberland_Canton_.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g181716-d810069-Reviews-Italian_Tomato-Richmond_British_Columbia.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g186338-d733328-Reviews-Stef_s_at_Oregano-London_England.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g227887-d2475536-Reviews-Pizzeria_Ristorante_Al_Pirata-Limone_sul_Garda_Province_of_Brescia_Lombardy.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194771-d2000739-Reviews-Hotel_Ristorante_Miralago-Garda_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1050055-d7089617-Reviews-Signorvino_Affi-Affi_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g194683-d2234510-Reviews-Ristorante_Ancora-Bardolino_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g608943-d3525610-Reviews-Pizzeria_Scaligera-Soave_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g608943-d2093778-Reviews-Antica_Trattoria_Da_Amedeo-Soave_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1760570-d1905034-Reviews-Ristorante_Eva-Pastrengo_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g652047-d4756835-Reviews-Ristorante_Pizzeria_Miralago-Costermano_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g188636-d789552-Reviews-Verona-Antwerp_Antwerp_Province.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2271830-Reviews-Mazzini27-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1849008-Reviews-Gelateria_Savoia-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3613009-Reviews-Pretto_Gelato_Arte_Italiana-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d14105963-Reviews-Trattoria_Reale-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d4554082-Reviews-Due_Torri_Lounge_Restaurant-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d737025-Reviews-Trattoria_Al_Bersagliere-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60763-d5497083-Reviews-Risotteria_Melotti_NYC-New_York_City_New_York.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2660722-Reviews-Osteria_Verona-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3913741-Reviews-Osteria_El_Bacarin-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2210731-Reviews-Osteria_Mondodoro-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2287278-Reviews-Ristorante_Sushi_Ikai-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1422383-Reviews-Osteria_da_Ugo-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3382333-Reviews-Gelateria_Amorino-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1190248-Reviews-Trattoria_Pane_Vino-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g60763-d15151690-Reviews-Zia_Maria_Little_Italy-New_York_City_New_York.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1087202-Reviews-La_Taverna_di_Via_Stella-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d12320864-Reviews-Sapore_Pizza_Stand_Up-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1582663-Reviews-Antica_Torretta-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1763854-Reviews-Il_Bacaro_dell_Arena-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2221563-Reviews-Ristorante_Pizzeria_Redentore-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3336532-Reviews-Boccondivino-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d6597281-Reviews-Latteria_Verona_ristorante-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d6867138-Reviews-Caffe_Wallner-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3451262-Reviews-Osteria_al_Borgo-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2140257-Reviews-Terrazza_Bar_al_Ponte-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2259307-Reviews-Liston_12-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2187755-Reviews-Ristorante_Pizzeria_Marechiaro-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2229248-Reviews-Cappa_Cafe-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d1892136-Reviews-ViaRoma33Cafe-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d6508946-Reviews-Signorvino_Verona-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2109271-Reviews-Osteria_al_Boscarel-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2303807-Reviews-Ristorante_Bottiglieria_Corsini-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2307404-Reviews-Pizza_Doge-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g46483-d15189633-Reviews-Verona_Ristorante-Haddonfield_New_Jersey.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g661295-d1829202-Reviews-Trattoria_alla_Ruota-Negrar_di_Valpolicella_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g2357600-d2325353-Reviews-I_Tamasotti-Mezzane_di_Sotto_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d2419041-Reviews-Gelateria_Zeno_Gelato_e_Cioccolato-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g295366-d7727935-Reviews-Romeo_y_Julieta_Guatemala-Antigua_Sacatepequez_Department.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g504292-d13371636-Reviews-Verona_Italian_Restaurant_and_Wine_Bar-Devonport_Tasmania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links Page8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3438148-Reviews-Locanda_della_Seconda_Balena-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d3608186-Reviews-Ristorante_Pizzeria_Rosa_Blu-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d836526-Reviews-Al_carro_armato-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g187871-d4481328-Reviews-Caffe_Rialto_snc-Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g528958-d2360736-Reviews-La_Scala-Griffith_New_South_Wales.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1013693-d6380471-Reviews-La_Sodita_Italiana-Brasilito_Province_of_Guanacaste.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g53896-d401048-Reviews-Verona_Village_Inn-Verona_Pennsylvania.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.com/Restaurant_Review-g1050693-d1418569-Reviews-Ristorante_Cavour-Dossobuono_Villafranca_di_Verona_Province_of_Verona_Veneto.html#REVIEWS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
